--- a/Python/Python_learning.xlsx
+++ b/Python/Python_learning.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="google_educating" sheetId="2" r:id="rId2"/>
     <sheet name="Common_programming" sheetId="3" r:id="rId3"/>
+    <sheet name="for_interview_NICE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>y = x</t>
   </si>
@@ -43,13 +44,26 @@
   </si>
   <si>
     <t>https://www.youtube.com/channel/UCh4yfIsO_D_7mYN8P-cOnuA</t>
+  </si>
+  <si>
+    <t>https://freecoursesite.us/python-course/</t>
+  </si>
+  <si>
+    <t>Beat the Codility Coding Interview in Python Course</t>
+  </si>
+  <si>
+    <t>https://freecoursesite.us/python-programming-beginners-learn-100-easy-steps-course-free-download/</t>
+  </si>
+  <si>
+    <t>Python Programming for Beginners – Learn in 100 Easy Steps Course Free Download
+Python for Absolute Beginners. Learn Python Programming using a Step By Step Approach with 200+ code examples.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +95,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF333333"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,13 +160,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,10 +188,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -174,11 +224,11 @@
       <c:lineChart>
         <c:grouping val="percentStacked"/>
         <c:marker val="1"/>
-        <c:axId val="81481088"/>
-        <c:axId val="179217536"/>
+        <c:axId val="93128192"/>
+        <c:axId val="93129728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81481088"/>
+        <c:axId val="93128192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -186,14 +236,14 @@
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179217536"/>
+        <c:crossAx val="93129728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179217536"/>
+        <c:axId val="93129728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -202,7 +252,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81481088"/>
+        <c:crossAx val="93128192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -211,7 +261,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -816,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -830,4 +880,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="30">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" s="9" customFormat="1" ht="18">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="18">
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python/Python_learning.xlsx
+++ b/Python/Python_learning.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="google_educating" sheetId="2" r:id="rId2"/>
     <sheet name="Common_programming" sheetId="3" r:id="rId3"/>
     <sheet name="for_interview_NICE" sheetId="4" r:id="rId4"/>
+    <sheet name="online_IDE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>y = x</t>
   </si>
@@ -57,6 +58,9 @@
   <si>
     <t>Python Programming for Beginners – Learn in 100 Easy Steps Course Free Download
 Python for Absolute Beginners. Learn Python Programming using a Step By Step Approach with 200+ code examples.</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/python-programming/online-compiler/?ref=dd577ae4</t>
   </si>
 </sst>
 </file>
@@ -224,11 +228,11 @@
       <c:lineChart>
         <c:grouping val="percentStacked"/>
         <c:marker val="1"/>
-        <c:axId val="93128192"/>
-        <c:axId val="93129728"/>
+        <c:axId val="106765696"/>
+        <c:axId val="96892032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93128192"/>
+        <c:axId val="106765696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -236,14 +240,14 @@
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93129728"/>
+        <c:crossAx val="96892032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93129728"/>
+        <c:axId val="96892032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -252,7 +256,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93128192"/>
+        <c:crossAx val="106765696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -261,7 +265,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -886,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -919,4 +923,31 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:2">
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Python/Python_learning.xlsx
+++ b/Python/Python_learning.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="google_educating" sheetId="2" r:id="rId2"/>
-    <sheet name="Common_programming" sheetId="3" r:id="rId3"/>
-    <sheet name="for_interview_NICE" sheetId="4" r:id="rId4"/>
-    <sheet name="online_IDE" sheetId="5" r:id="rId5"/>
+    <sheet name="good_doc" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="google_educating" sheetId="2" r:id="rId3"/>
+    <sheet name="Common_programming" sheetId="3" r:id="rId4"/>
+    <sheet name="for_interview_NICE" sheetId="4" r:id="rId5"/>
+    <sheet name="online_IDE" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>y = x</t>
   </si>
@@ -62,12 +63,21 @@
   <si>
     <t>https://www.programiz.com/python-programming/online-compiler/?ref=dd577ae4</t>
   </si>
+  <si>
+    <t>http://effbot.org/pyfaq/what-is-init-py-used-for.htm</t>
+  </si>
+  <si>
+    <t>http://effbot.org/</t>
+  </si>
+  <si>
+    <t>Make sense topic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +86,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -92,14 +116,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,12 +128,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF333333"/>
-      <name val="Lato"/>
-    </font>
-    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
@@ -131,8 +141,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +206,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5BEF7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -166,36 +224,41 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -208,6 +271,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5BEF7E"/>
+      <color rgb="FFA7D971"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFFF6699"/>
@@ -228,11 +293,11 @@
       <c:lineChart>
         <c:grouping val="percentStacked"/>
         <c:marker val="1"/>
-        <c:axId val="106765696"/>
-        <c:axId val="96892032"/>
+        <c:axId val="68980096"/>
+        <c:axId val="97671808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106765696"/>
+        <c:axId val="68980096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,14 +305,14 @@
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96892032"/>
+        <c:crossAx val="97671808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96892032"/>
+        <c:axId val="97671808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -256,7 +321,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106765696"/>
+        <c:crossAx val="68980096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -265,7 +330,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -765,71 +830,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="31.2">
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:6" ht="17.399999999999999" customHeight="1">
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="T14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="16.6640625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:9">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>13</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="4">
+      <c r="C8" s="11">
         <v>21</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>22</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="10">
         <v>23</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="4">
+      <c r="C9" s="11">
         <v>31</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="11">
         <v>32</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>33</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -840,18 +954,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -866,53 +983,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="30">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:2" s="9" customFormat="1" ht="18">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -925,21 +1051,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Python/Python_learning.xlsx
+++ b/Python/Python_learning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="good_doc" sheetId="6" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Common_programming" sheetId="3" r:id="rId4"/>
     <sheet name="for_interview_NICE" sheetId="4" r:id="rId5"/>
     <sheet name="online_IDE" sheetId="5" r:id="rId6"/>
+    <sheet name="tutor-page" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>y = x</t>
   </si>
@@ -71,6 +73,9 @@
   </si>
   <si>
     <t>Make sense topic</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/flask-tutorial</t>
   </si>
 </sst>
 </file>
@@ -293,11 +298,11 @@
       <c:lineChart>
         <c:grouping val="percentStacked"/>
         <c:marker val="1"/>
-        <c:axId val="68980096"/>
-        <c:axId val="97671808"/>
+        <c:axId val="146817792"/>
+        <c:axId val="146820480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68980096"/>
+        <c:axId val="146817792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,14 +310,14 @@
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97671808"/>
+        <c:crossAx val="146820480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97671808"/>
+        <c:axId val="146820480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,7 +326,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68980096"/>
+        <c:crossAx val="146817792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -330,7 +335,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -832,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -959,7 +964,7 @@
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="A1:XFD1048576"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -987,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -1076,4 +1081,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>